--- a/data/trans_bre/P1424_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1424_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.456659374452397</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.835587918126318</v>
+        <v>1.835587918126316</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>3.881559665424392</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3113448149685146</v>
+        <v>0.3113448149685143</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.972035748811779</v>
+        <v>4.170445509583103</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5480330424636489</v>
+        <v>-0.909810369015932</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.532425058718232</v>
+        <v>1.454544706106335</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.08339530744730601</v>
+        <v>-0.1371750309234057</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.01908604298632</v>
+        <v>9.155214356760489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.16822951419812</v>
+        <v>4.124900938395688</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9.02826151402596</v>
+        <v>9.098354575569195</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.008287178247447</v>
+        <v>0.9240492973427413</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>4.563213015388568</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.059633810210849</v>
+        <v>5.059633810210851</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>3.293617339950408</v>
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.944022452137715</v>
+        <v>3.112719560823624</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.361503727759486</v>
+        <v>3.30247783680242</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.501452395560339</v>
+        <v>1.441764049700393</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.8791466870984345</v>
+        <v>0.8307364217663078</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.316100773815185</v>
+        <v>6.441929145865945</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.786292622136241</v>
+        <v>6.930032477692887</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.865802485456449</v>
+        <v>7.152884324694679</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.302450868828715</v>
+        <v>3.377150533163853</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         <v>4.648455448168261</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.398343972258012</v>
+        <v>7.398343972258011</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.573568902864675</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.848983696879322</v>
+        <v>2.778411203869283</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.88946535465255</v>
+        <v>4.673204682581957</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1.024001939851306</v>
+        <v>1.004207485917674</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.884223077048037</v>
+        <v>0.854573953160274</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.772979806277306</v>
+        <v>6.67488857489964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.0089264913519</v>
+        <v>10.11893893722188</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>6.323345445172095</v>
+        <v>5.888689114368177</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.769331952546897</v>
+        <v>3.79512489841704</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.496610745296018</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.777578081445235</v>
+        <v>4.777578081445236</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.282244479114513</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.9285209734466692</v>
+        <v>0.9285209734466694</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.625168016801262</v>
+        <v>1.624055789425887</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.656144157157324</v>
+        <v>2.566769825222944</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3912496643287897</v>
+        <v>0.3980464984322936</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4259263708036533</v>
+        <v>0.428357807340937</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.527107491927868</v>
+        <v>5.492868291558417</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.877301147526755</v>
+        <v>6.760133872282672</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.816118237796366</v>
+        <v>2.866650970516416</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.720608492033483</v>
+        <v>1.724342852384723</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>4.648459623853652</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.888154019769205</v>
+        <v>4.888154019769207</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.439605688789573</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.677036937808465</v>
+        <v>3.630021770870077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.839887443787389</v>
+        <v>3.77328885791467</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.566415081389887</v>
+        <v>1.496597937521099</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.7892263946510857</v>
+        <v>0.7559073491031092</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.725173084281971</v>
+        <v>5.645658279093438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.010342505430252</v>
+        <v>6.014391182405556</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.587972718457449</v>
+        <v>3.510113881984238</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.637170980295328</v>
+        <v>1.60912862819568</v>
       </c>
     </row>
     <row r="19">
